--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.15/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.15/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="1071">
   <si>
     <t>anchor score</t>
   </si>
@@ -88,805 +88,805 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>charged</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>losses</t>
+  </si>
+  <si>
+    <t>risks</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>disgrace</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>scared</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>bloody</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>saying</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>enforcement</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>emails</t>
+  </si>
+  <si>
+    <t>stops</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>hardship</t>
+  </si>
+  <si>
+    <t>unfair</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>hazard</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>charged</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>losses</t>
-  </si>
-  <si>
-    <t>risks</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>disgrace</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>stolen</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>infection</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>scared</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>bloody</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>la</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>saying</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>enforcement</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>emails</t>
-  </si>
-  <si>
-    <t>stops</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>idiot</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>hardship</t>
-  </si>
-  <si>
-    <t>unfair</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>hazard</t>
   </si>
   <si>
     <t>san</t>
@@ -3592,10 +3592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3653,7 +3653,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02917898573295106</v>
+        <v>0.0295578330623376</v>
       </c>
       <c r="C3">
         <v>186</v>
@@ -3703,7 +3703,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02372828091612929</v>
+        <v>0.02403635865187655</v>
       </c>
       <c r="C4">
         <v>123</v>
@@ -3753,7 +3753,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01132120710425088</v>
+        <v>0.0114681967603044</v>
       </c>
       <c r="C5">
         <v>28</v>
@@ -3803,7 +3803,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01069753519246625</v>
+        <v>0.01083642736218645</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -3824,7 +3824,7 @@
         <v>2495</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K6">
         <v>0.007582323607510389</v>
@@ -3853,7 +3853,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01026071529955537</v>
+        <v>0.01039393598873246</v>
       </c>
       <c r="C7">
         <v>23</v>
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>289</v>
       </c>
       <c r="K7">
         <v>0.007180078587784696</v>
@@ -3883,19 +3883,19 @@
         <v>191</v>
       </c>
       <c r="M7">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="N7">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3903,7 +3903,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01026071529955537</v>
+        <v>0.01039393598873246</v>
       </c>
       <c r="C8">
         <v>23</v>
@@ -3924,7 +3924,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>0.007180078587784696</v>
@@ -3953,7 +3953,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009804452953786118</v>
+        <v>0.009931749730022012</v>
       </c>
       <c r="C9">
         <v>21</v>
@@ -3974,7 +3974,7 @@
         <v>1739</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9">
         <v>0.006911927072812692</v>
@@ -4003,7 +4003,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.00800530231463311</v>
+        <v>0.008109239697192839</v>
       </c>
       <c r="C10">
         <v>14</v>
@@ -4024,7 +4024,7 @@
         <v>135</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>290</v>
       </c>
       <c r="K10">
         <v>0.006632943780328443</v>
@@ -4033,19 +4033,19 @@
         <v>163</v>
       </c>
       <c r="M10">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="N10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4053,7 +4053,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007714102331503521</v>
+        <v>0.007814258899440846</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -4074,7 +4074,7 @@
         <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>0.006298993808718506</v>
@@ -4103,7 +4103,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.007714102331503521</v>
+        <v>0.007814258899440846</v>
       </c>
       <c r="C12">
         <v>13</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>0.0059463184250047</v>
@@ -4153,7 +4153,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007411469787643063</v>
+        <v>0.007507697105534609</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -4174,7 +4174,7 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K13">
         <v>0.005691190686528419</v>
@@ -4203,7 +4203,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007411469787643063</v>
+        <v>0.007507697105534609</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4224,7 +4224,7 @@
         <v>2833</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>0.005448900238692713</v>
@@ -4253,7 +4253,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007411469787643063</v>
+        <v>0.007507697105534609</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -4274,7 +4274,7 @@
         <v>906</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K15">
         <v>0.005424075962715241</v>
@@ -4303,7 +4303,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007095942083006579</v>
+        <v>0.007188072725662632</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -4353,7 +4353,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007095942083006579</v>
+        <v>0.007188072725662632</v>
       </c>
       <c r="C17">
         <v>11</v>
@@ -4374,7 +4374,7 @@
         <v>66</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K17">
         <v>0.005272676500391796</v>
@@ -4403,7 +4403,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006765715311600216</v>
+        <v>0.006853558432695916</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -4424,7 +4424,7 @@
         <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K18">
         <v>0.005221234523936213</v>
@@ -4453,25 +4453,25 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006765715311600216</v>
+        <v>0.006501856417311871</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>201</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>292</v>
@@ -4503,7 +4503,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006418521115479752</v>
+        <v>0.006501856417311871</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -4521,10 +4521,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K20">
         <v>0.005143106908103576</v>
@@ -4553,7 +4553,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006418521115479752</v>
+        <v>0.006501856417311871</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -4571,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K21">
         <v>0.005090355699196496</v>
@@ -4603,7 +4603,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006418521115479752</v>
+        <v>0.006501856417311871</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -4621,10 +4621,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K22">
         <v>0.005010187607124264</v>
@@ -4653,7 +4653,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006418521115479752</v>
+        <v>0.006501856417311871</v>
       </c>
       <c r="C23">
         <v>9</v>
@@ -4671,10 +4671,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K23">
         <v>0.004983178312749938</v>
@@ -4703,7 +4703,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006418521115479752</v>
+        <v>0.006501856417311871</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -4721,10 +4721,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K24">
         <v>0.004469185427132908</v>
@@ -4753,28 +4753,28 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006418521115479752</v>
+        <v>0.006501856417311871</v>
       </c>
       <c r="C25">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K25">
         <v>0.004408377349803064</v>
@@ -4803,28 +4803,28 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006418521115479752</v>
+        <v>0.006130009017309993</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>715</v>
+        <v>23</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K26">
         <v>0.004252554767272908</v>
@@ -4853,7 +4853,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006051439741259702</v>
+        <v>0.006130009017309993</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -4871,10 +4871,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K27">
         <v>0.004252554767272908</v>
@@ -4903,7 +4903,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006051439741259702</v>
+        <v>0.006130009017309993</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -4921,10 +4921,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K28">
         <v>0.004188602932340933</v>
@@ -4953,7 +4953,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006051439741259702</v>
+        <v>0.006130009017309993</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -4971,10 +4971,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>0.004123659418644392</v>
@@ -5003,7 +5003,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006051439741259702</v>
+        <v>0.006130009017309993</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -5021,10 +5021,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K30">
         <v>0.004090801051023427</v>
@@ -5053,13 +5053,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006051439741259702</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5071,10 +5071,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K31">
         <v>0.004057676610713838</v>
@@ -5103,28 +5103,28 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006051439741259702</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K32">
         <v>0.003817766774397372</v>
@@ -5153,7 +5153,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -5171,10 +5171,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K33">
         <v>0.003782251892956402</v>
@@ -5203,7 +5203,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>20</v>
@@ -5253,7 +5253,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -5271,10 +5271,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K35">
         <v>0.003599425033553432</v>
@@ -5303,7 +5303,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>293</v>
@@ -5353,7 +5353,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>294</v>
@@ -5403,7 +5403,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -5421,10 +5421,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K38">
         <v>0.00352363917680722</v>
@@ -5453,7 +5453,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -5471,10 +5471,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K39">
         <v>0.003406800810521503</v>
@@ -5503,28 +5503,28 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K40">
         <v>0.003160191321905776</v>
@@ -5553,28 +5553,28 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C41">
         <v>7</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>750</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K41">
         <v>0.003160191321905776</v>
@@ -5603,28 +5603,28 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C42">
         <v>7</v>
       </c>
       <c r="D42">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="E42">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F42">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>280</v>
+        <v>696</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K42">
         <v>0.003160191321905776</v>
@@ -5653,28 +5653,28 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C43">
         <v>7</v>
       </c>
       <c r="D43">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="E43">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F43">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>750</v>
+        <v>279</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K43">
         <v>0.003073594258715375</v>
@@ -5703,25 +5703,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C44">
         <v>7</v>
       </c>
       <c r="D44">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="E44">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F44">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>696</v>
+        <v>141</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>295</v>
@@ -5753,25 +5753,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005660603552125438</v>
+        <v>0.005308743534418136</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="E45">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>296</v>
@@ -5803,25 +5803,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005660603552125438</v>
+        <v>0.005308743534418136</v>
       </c>
       <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>7</v>
-      </c>
-      <c r="D46">
-        <v>154</v>
-      </c>
-      <c r="E46">
-        <v>0.95</v>
-      </c>
-      <c r="F46">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>141</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>297</v>
@@ -5853,7 +5853,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005240700545401631</v>
+        <v>0.005308743534418136</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5871,10 +5871,10 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K47">
         <v>0.002892633163663721</v>
@@ -5903,28 +5903,28 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005240700545401631</v>
+        <v>0.005308743534418136</v>
       </c>
       <c r="C48">
         <v>6</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>7</v>
+        <v>541</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K48">
         <v>0.002892633163663721</v>
@@ -5953,28 +5953,28 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005240700545401631</v>
+        <v>0.005308743534418136</v>
       </c>
       <c r="C49">
         <v>6</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K49">
         <v>0.002845595343264209</v>
@@ -6003,28 +6003,28 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005240700545401631</v>
+        <v>0.005308743534418136</v>
       </c>
       <c r="C50">
         <v>6</v>
       </c>
       <c r="D50">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E50">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>541</v>
+        <v>8</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K50">
         <v>0.002845595343264209</v>
@@ -6053,28 +6053,28 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005240700545401631</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K51">
         <v>0.002797766805094149</v>
@@ -6103,13 +6103,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.005240700545401631</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -6121,10 +6121,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K52">
         <v>0.002797766805094149</v>
@@ -6153,7 +6153,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -6171,10 +6171,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K53">
         <v>0.002797766805094149</v>
@@ -6203,7 +6203,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -6221,10 +6221,10 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K54">
         <v>0.002749106279096262</v>
@@ -6253,7 +6253,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -6271,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>298</v>
@@ -6303,7 +6303,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -6321,10 +6321,10 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K56">
         <v>0.002699568775165074</v>
@@ -6353,7 +6353,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -6371,10 +6371,10 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K57">
         <v>0.0026491050960515</v>
@@ -6403,7 +6403,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>299</v>
@@ -6453,7 +6453,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -6471,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>368</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>300</v>
@@ -6503,25 +6503,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C60">
         <v>5</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>35</v>
+        <v>319</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>301</v>
@@ -6553,25 +6553,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C61">
         <v>5</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>368</v>
+        <v>512</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>302</v>
@@ -6603,25 +6603,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C62">
         <v>5</v>
       </c>
       <c r="D62">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>303</v>
@@ -6653,28 +6653,28 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.004784083176410167</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E63">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>512</v>
+        <v>17</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K63">
         <v>0.002491589156374969</v>
@@ -6703,13 +6703,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.004784083176410167</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -6721,10 +6721,10 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>247</v>
+        <v>7</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K64">
         <v>0.002436822267266347</v>
@@ -6753,7 +6753,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.004279014076986501</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -6771,10 +6771,10 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K65">
         <v>0.002380795875400675</v>
@@ -6803,7 +6803,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.004279014076986501</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>304</v>
@@ -6853,7 +6853,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.004279014076986501</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>305</v>
@@ -6903,7 +6903,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.004279014076986501</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>306</v>
@@ -6953,7 +6953,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.004279014076986501</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -6971,10 +6971,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K69">
         <v>0.002323418868479086</v>
@@ -7003,28 +7003,28 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004279014076986501</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C70">
         <v>4</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1059</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K70">
         <v>0.002323418868479086</v>
@@ -7053,25 +7053,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.004279014076986501</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C71">
         <v>4</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>307</v>
@@ -7103,25 +7103,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.004279014076986501</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C72">
         <v>4</v>
       </c>
       <c r="D72">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E72">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F72">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>1059</v>
+        <v>77</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>308</v>
@@ -7153,25 +7153,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.004279014076986501</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C73">
         <v>4</v>
       </c>
       <c r="D73">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E73">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F73">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>309</v>
@@ -7203,25 +7203,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.004279014076986501</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C74">
         <v>4</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>310</v>
@@ -7253,28 +7253,28 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.004279014076986501</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75">
         <v>4</v>
       </c>
-      <c r="D75">
-        <v>65</v>
-      </c>
-      <c r="E75">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F75">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>29</v>
-      </c>
       <c r="J75" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K75">
         <v>0.00226458858879144</v>
@@ -7303,28 +7303,28 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.004279014076986501</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76">
         <v>4</v>
       </c>
-      <c r="D76">
-        <v>4</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>18</v>
-      </c>
       <c r="J76" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K76">
         <v>0.00226458858879144</v>
@@ -7353,7 +7353,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -7371,10 +7371,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K77">
         <v>0.00226458858879144</v>
@@ -7403,7 +7403,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -7421,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>311</v>
@@ -7453,7 +7453,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>312</v>
@@ -7503,7 +7503,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -7521,10 +7521,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K80">
         <v>0.002204188674901532</v>
@@ -7553,7 +7553,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>313</v>
@@ -7603,7 +7603,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -7621,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>314</v>
@@ -7653,7 +7653,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -7671,10 +7671,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K83">
         <v>0.002204188674901532</v>
@@ -7703,7 +7703,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>315</v>
@@ -7753,7 +7753,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -7771,10 +7771,10 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K85">
         <v>0.002142086355085607</v>
@@ -7803,7 +7803,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -7821,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>316</v>
@@ -7853,7 +7853,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -7871,10 +7871,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K87">
         <v>0.002078129012049952</v>
@@ -7903,7 +7903,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -7921,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>317</v>
@@ -7953,7 +7953,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>318</v>
@@ -8003,28 +8003,28 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K90">
         <v>0.002078129012049952</v>
@@ -8053,25 +8053,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>5</v>
+        <v>285</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>319</v>
@@ -8103,28 +8103,28 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
       <c r="D92">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E92">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F92">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>30</v>
+        <v>338</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K92">
         <v>0.002012139763734984</v>
@@ -8153,25 +8153,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
       <c r="D93">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E93">
-        <v>0.62</v>
+        <v>0.93</v>
       </c>
       <c r="F93">
-        <v>0.38</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>320</v>
@@ -8203,25 +8203,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
       <c r="D94">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="E94">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="F94">
-        <v>0.14</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>321</v>
@@ -8253,25 +8253,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
       <c r="D95">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E95">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>322</v>
@@ -8303,28 +8303,28 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C96">
         <v>3</v>
       </c>
       <c r="D96">
-        <v>216</v>
+        <v>7</v>
       </c>
       <c r="E96">
-        <v>0.99</v>
+        <v>0.57</v>
       </c>
       <c r="F96">
-        <v>0.01000000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K96">
         <v>0.002012139763734984</v>
@@ -8353,28 +8353,28 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C97">
         <v>3</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K97">
         <v>0.001943911692151484</v>
@@ -8403,25 +8403,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
       <c r="D98">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="E98">
-        <v>0.57</v>
+        <v>0.97</v>
       </c>
       <c r="F98">
-        <v>0.43</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>323</v>
@@ -8453,25 +8453,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
       <c r="D99">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E99">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F99">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>324</v>
@@ -8503,25 +8503,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
       <c r="D100">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="E100">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>325</v>
@@ -8553,25 +8553,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003705734893821532</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>326</v>
@@ -8603,13 +8603,13 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003705734893821532</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -8621,10 +8621,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K102">
         <v>0.001943911692151484</v>
@@ -8653,7 +8653,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>327</v>
@@ -8703,7 +8703,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -8721,10 +8721,10 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K104">
         <v>0.001873200177493856</v>
@@ -8753,7 +8753,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -8803,7 +8803,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -8821,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>329</v>
@@ -8853,7 +8853,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>330</v>
@@ -8903,7 +8903,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -8921,10 +8921,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K108">
         <v>0.001799712516776716</v>
@@ -8953,7 +8953,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>331</v>
@@ -9003,7 +9003,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>332</v>
@@ -9053,7 +9053,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>333</v>
@@ -9103,25 +9103,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>18</v>
+        <v>469</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>334</v>
@@ -9153,7 +9153,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K113">
         <v>0.001799712516776716</v>
@@ -9203,25 +9203,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
       <c r="D114">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="E114">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="F114">
-        <v>0.02000000000000002</v>
+        <v>0.14</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>469</v>
+        <v>85</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>335</v>
@@ -9253,25 +9253,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>336</v>
@@ -9303,25 +9303,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E116">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="F116">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>337</v>
@@ -9353,25 +9353,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E117">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="F117">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>338</v>
@@ -9403,28 +9403,28 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E118">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F118">
-        <v>0.4</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K118">
         <v>0.001723093549730411</v>
@@ -9453,25 +9453,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E119">
-        <v>0.6</v>
+        <v>0.96</v>
       </c>
       <c r="F119">
-        <v>0.4</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>339</v>
@@ -9503,25 +9503,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="E120">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="F120">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>340</v>
@@ -9553,25 +9553,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E121">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F121">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>341</v>
@@ -9603,28 +9603,28 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
       <c r="D122">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="E122">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F122">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K122">
         <v>0.001642905237438337</v>
@@ -9653,28 +9653,28 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
       <c r="D123">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E123">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F123">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K123">
         <v>0.001642905237438337</v>
@@ -9703,25 +9703,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
       <c r="D124">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E124">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F124">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>342</v>
@@ -9753,25 +9753,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
       <c r="D125">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="E125">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F125">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>343</v>
@@ -9803,25 +9803,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
       <c r="D126">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E126">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F126">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>344</v>
@@ -9853,25 +9853,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="E127">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="F127">
-        <v>0.02000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>345</v>
@@ -9903,25 +9903,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E128">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F128">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>346</v>
@@ -9953,28 +9953,28 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E129">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="F129">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K129">
         <v>0.001642905237438337</v>
@@ -10003,28 +10003,28 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E130">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F130">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K130">
         <v>0.001558596759037464</v>
@@ -10053,28 +10053,28 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="E131">
-        <v>0.6</v>
+        <v>0.97</v>
       </c>
       <c r="F131">
-        <v>0.4</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K131">
         <v>0.001558596759037464</v>
@@ -10103,25 +10103,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E132">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>347</v>
@@ -10153,25 +10153,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="E133">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>348</v>
@@ -10203,25 +10203,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>349</v>
@@ -10253,25 +10253,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>350</v>
@@ -10303,25 +10303,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E136">
-        <v>0.6</v>
+        <v>0.87</v>
       </c>
       <c r="F136">
-        <v>0.4</v>
+        <v>0.13</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>351</v>
@@ -10353,28 +10353,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="E137">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K137">
         <v>0.001558596759037464</v>
@@ -10403,28 +10403,28 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.003025719870629851</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K138">
         <v>0.001558596759037464</v>
@@ -10453,13 +10453,13 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.003025719870629851</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -10471,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>352</v>
@@ -10503,7 +10503,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>353</v>
@@ -10553,7 +10553,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>354</v>
@@ -10603,7 +10603,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10621,10 +10621,10 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K142">
         <v>0.001469459116601022</v>
@@ -10653,7 +10653,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>355</v>
@@ -10703,7 +10703,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>356</v>
@@ -10753,7 +10753,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10774,7 +10774,7 @@
         <v>7</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K145">
         <v>0.001469459116601022</v>
@@ -10803,7 +10803,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10824,7 +10824,7 @@
         <v>6</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K146">
         <v>0.001469459116601022</v>
@@ -10853,7 +10853,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10871,7 +10871,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>357</v>
@@ -10903,7 +10903,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10921,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>358</v>
@@ -10953,7 +10953,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>359</v>
@@ -11003,7 +11003,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>360</v>
@@ -11053,7 +11053,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -11071,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K151">
         <v>0.001469459116601022</v>
@@ -11103,7 +11103,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>361</v>
@@ -11153,7 +11153,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -11171,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>362</v>
@@ -11203,7 +11203,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -11221,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>363</v>
@@ -11253,7 +11253,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -11271,10 +11271,10 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K155">
         <v>0.001469459116601022</v>
@@ -11303,7 +11303,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>364</v>
@@ -11353,7 +11353,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -11371,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>365</v>
@@ -11403,7 +11403,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>366</v>
@@ -11453,7 +11453,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>367</v>
@@ -11503,7 +11503,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11521,10 +11521,10 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K160">
         <v>0.001469459116601022</v>
@@ -11553,7 +11553,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11571,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>368</v>
@@ -11603,25 +11603,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>369</v>
@@ -11653,25 +11653,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>370</v>
@@ -11703,25 +11703,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E164">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F164">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>371</v>
@@ -11753,7 +11753,7 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -11771,10 +11771,10 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K165">
         <v>0.001469459116601022</v>
@@ -11803,25 +11803,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E166">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F166">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>372</v>
@@ -11853,25 +11853,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F167">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>373</v>
@@ -11903,7 +11903,7 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -11921,7 +11921,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>374</v>
@@ -11953,25 +11953,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>375</v>
@@ -12003,25 +12003,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F170">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>376</v>
@@ -12053,7 +12053,7 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>377</v>
@@ -12103,7 +12103,7 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -12121,10 +12121,10 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K172">
         <v>0.001374553139548131</v>
@@ -12153,7 +12153,7 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -12171,10 +12171,10 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K173">
         <v>0.001374553139548131</v>
@@ -12203,25 +12203,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>378</v>
@@ -12253,28 +12253,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K175">
         <v>0.001374553139548131</v>
@@ -12303,7 +12303,7 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -12321,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>379</v>
@@ -12353,28 +12353,28 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K177">
         <v>0.001374553139548131</v>
@@ -12403,25 +12403,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>380</v>
@@ -12453,25 +12453,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>381</v>
@@ -12503,25 +12503,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E180">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F180">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>382</v>
@@ -12553,25 +12553,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E181">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F181">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>383</v>
@@ -12603,25 +12603,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E182">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F182">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>384</v>
@@ -12653,25 +12653,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E183">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F183">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>385</v>
@@ -12703,25 +12703,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>386</v>
@@ -12753,25 +12753,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E185">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F185">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>387</v>
@@ -12803,25 +12803,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>388</v>
@@ -12853,25 +12853,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>389</v>
@@ -12903,28 +12903,28 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F188">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K188">
         <v>0.001272588924799124</v>
@@ -12953,25 +12953,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>390</v>
@@ -13003,7 +13003,7 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -13021,7 +13021,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>391</v>
@@ -13053,25 +13053,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>392</v>
@@ -13103,7 +13103,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -13121,7 +13121,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>393</v>
@@ -13153,7 +13153,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -13171,7 +13171,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>394</v>
@@ -13203,7 +13203,7 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>395</v>
@@ -13253,25 +13253,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>396</v>
@@ -13303,28 +13303,28 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E196">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F196">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K196">
         <v>0.001272588924799124</v>
@@ -13353,25 +13353,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E197">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F197">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>397</v>
@@ -13403,19 +13403,19 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E198">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F198">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
@@ -13453,25 +13453,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E199">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F199">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>399</v>
@@ -13503,19 +13503,19 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E200">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F200">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
@@ -13524,7 +13524,7 @@
         <v>36</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K200">
         <v>0.001272588924799124</v>
@@ -13553,7 +13553,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13571,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>400</v>
@@ -13603,25 +13603,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E202">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F202">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>401</v>
@@ -13653,25 +13653,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>402</v>
@@ -13703,25 +13703,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E204">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>403</v>
@@ -13753,25 +13753,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>404</v>
@@ -13803,28 +13803,28 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K206">
         <v>0.001161709434239543</v>
@@ -13853,25 +13853,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E207">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="F207">
-        <v>0.17</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>405</v>
@@ -13903,28 +13903,28 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E208">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F208">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K208">
         <v>0.001161709434239543</v>
@@ -13953,25 +13953,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="E209">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="F209">
-        <v>0.02000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>406</v>
@@ -14003,25 +14003,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E210">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F210">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>407</v>
@@ -14053,25 +14053,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E211">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F211">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>408</v>
@@ -14103,25 +14103,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E212">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F212">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>409</v>
@@ -14153,25 +14153,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E213">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F213">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>410</v>
@@ -14203,25 +14203,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E214">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F214">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>411</v>
@@ -14253,25 +14253,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E215">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F215">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>412</v>
@@ -14303,25 +14303,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E216">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>413</v>
@@ -14353,28 +14353,28 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E217">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F217">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K217">
         <v>0.001161709434239543</v>
@@ -14403,25 +14403,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>414</v>
@@ -14453,7 +14453,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14471,7 +14471,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>415</v>
@@ -14503,25 +14503,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E220">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F220">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>416</v>
@@ -14553,25 +14553,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E221">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F221">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>417</v>
@@ -14603,25 +14603,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E222">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F222">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>418</v>
@@ -14653,25 +14653,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E223">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="F223">
-        <v>0.02000000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>419</v>
@@ -14703,28 +14703,28 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E224">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F224">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K224">
         <v>0.001161709434239543</v>
@@ -14753,25 +14753,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E225">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F225">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>420</v>
@@ -14803,25 +14803,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E226">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F226">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>421</v>
@@ -14853,28 +14853,28 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="E227">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F227">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K227">
         <v>0.001161709434239543</v>
@@ -14903,25 +14903,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E228">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F228">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>422</v>
@@ -14953,28 +14953,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="E229">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F229">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K229">
         <v>0.001161709434239543</v>
@@ -15003,25 +15003,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E230">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F230">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>423</v>
@@ -15053,25 +15053,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E231">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F231">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>424</v>
@@ -15103,28 +15103,28 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E232">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F232">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K232">
         <v>0.001161709434239543</v>
@@ -15153,28 +15153,28 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E233">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F233">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K233">
         <v>0.001161709434239543</v>
@@ -15203,25 +15203,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E234">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F234">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>425</v>
@@ -15253,25 +15253,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E235">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F235">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>426</v>
@@ -15303,25 +15303,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E236">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F236">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>427</v>
@@ -15353,25 +15353,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E237">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F237">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>428</v>
@@ -15403,25 +15403,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E238">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F238">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>429</v>
@@ -15453,25 +15453,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E239">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="F239">
-        <v>0.2</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>430</v>
@@ -15503,25 +15503,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E240">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F240">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>431</v>
@@ -15553,25 +15553,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E241">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F241">
-        <v>0.02000000000000002</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>432</v>
@@ -15603,25 +15603,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E242">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F242">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>433</v>
@@ -15653,25 +15653,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E243">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F243">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>434</v>
@@ -15703,25 +15703,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E244">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F244">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>435</v>
@@ -15753,25 +15753,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E245">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F245">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>436</v>
@@ -15803,25 +15803,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E246">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F246">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>437</v>
@@ -15853,25 +15853,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E247">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F247">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>438</v>
@@ -15903,25 +15903,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E248">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F248">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>439</v>
@@ -15953,25 +15953,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E249">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F249">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>440</v>
@@ -16003,25 +16003,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E250">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F250">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>441</v>
@@ -16053,7 +16053,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -16071,10 +16071,10 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K251">
         <v>0.001039064506024976</v>
@@ -16103,25 +16103,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="E252">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F252">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>442</v>
@@ -16153,25 +16153,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E253">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F253">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>443</v>
@@ -16203,25 +16203,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E254">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F254">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>444</v>
@@ -16253,25 +16253,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E255">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F255">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>445</v>
@@ -16303,25 +16303,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E256">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F256">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>446</v>
@@ -16353,25 +16353,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
+        <v>55</v>
+      </c>
+      <c r="E257">
+        <v>0.98</v>
+      </c>
+      <c r="F257">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257">
         <v>4</v>
-      </c>
-      <c r="E257">
-        <v>0.75</v>
-      </c>
-      <c r="F257">
-        <v>0.25</v>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257">
-        <v>187</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>447</v>
@@ -16403,25 +16403,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E258">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F258">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>448</v>
@@ -16453,25 +16453,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E259">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F259">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>449</v>
@@ -16503,25 +16503,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E260">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F260">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>450</v>
@@ -16553,25 +16553,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E261">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H261">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>451</v>
@@ -16603,25 +16603,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>452</v>
@@ -16653,25 +16653,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>453</v>
@@ -16703,25 +16703,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E264">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="F264">
-        <v>0.03000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>454</v>
@@ -16753,25 +16753,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E265">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F265">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>455</v>
@@ -16803,25 +16803,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E266">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F266">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>456</v>
@@ -16853,28 +16853,28 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E267">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F267">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K267">
         <v>0.001039064506024976</v>
@@ -16903,25 +16903,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E268">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F268">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H268">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>457</v>
@@ -16953,25 +16953,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E269">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F269">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>458</v>
@@ -17003,7 +17003,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -17021,7 +17021,7 @@
         <v>0</v>
       </c>
       <c r="H270">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>459</v>
@@ -17053,25 +17053,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E271">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F271">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>460</v>
@@ -17103,7 +17103,7 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -17121,10 +17121,10 @@
         <v>0</v>
       </c>
       <c r="H272">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K272">
         <v>0.001039064506024976</v>
@@ -17153,25 +17153,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E273">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F273">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H273">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>461</v>
@@ -17203,7 +17203,7 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -17221,7 +17221,7 @@
         <v>0</v>
       </c>
       <c r="H274">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>462</v>
@@ -17253,7 +17253,7 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -17271,7 +17271,7 @@
         <v>0</v>
       </c>
       <c r="H275">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>463</v>
@@ -17303,7 +17303,7 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -17321,7 +17321,7 @@
         <v>0</v>
       </c>
       <c r="H276">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>464</v>
@@ -17353,7 +17353,7 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H277">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>465</v>
@@ -17403,7 +17403,7 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -17421,10 +17421,10 @@
         <v>0</v>
       </c>
       <c r="H278">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K278">
         <v>0.001039064506024976</v>
@@ -17453,7 +17453,7 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -17471,10 +17471,10 @@
         <v>0</v>
       </c>
       <c r="H279">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K279">
         <v>0.001039064506024976</v>
@@ -17503,7 +17503,7 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -17521,7 +17521,7 @@
         <v>0</v>
       </c>
       <c r="H280">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>466</v>
@@ -17553,7 +17553,7 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -17571,7 +17571,7 @@
         <v>0</v>
       </c>
       <c r="H281">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>467</v>
@@ -17603,7 +17603,7 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -17621,10 +17621,10 @@
         <v>0</v>
       </c>
       <c r="H282">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K282">
         <v>0.001039064506024976</v>
@@ -17653,25 +17653,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F283">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H283">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>468</v>
@@ -17699,30 +17699,6 @@
       </c>
     </row>
     <row r="284" spans="1:17">
-      <c r="A284" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B284">
-        <v>0.00213950703849325</v>
-      </c>
-      <c r="C284">
-        <v>1</v>
-      </c>
-      <c r="D284">
-        <v>1</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284" t="b">
-        <v>0</v>
-      </c>
-      <c r="H284">
-        <v>22</v>
-      </c>
       <c r="J284" s="1" t="s">
         <v>469</v>
       </c>
@@ -17749,30 +17725,6 @@
       </c>
     </row>
     <row r="285" spans="1:17">
-      <c r="A285" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B285">
-        <v>0.00213950703849325</v>
-      </c>
-      <c r="C285">
-        <v>1</v>
-      </c>
-      <c r="D285">
-        <v>2</v>
-      </c>
-      <c r="E285">
-        <v>0.5</v>
-      </c>
-      <c r="F285">
-        <v>0.5</v>
-      </c>
-      <c r="G285" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285">
-        <v>13</v>
-      </c>
       <c r="J285" s="1" t="s">
         <v>470</v>
       </c>
@@ -18112,7 +18064,7 @@
     </row>
     <row r="298" spans="10:17">
       <c r="J298" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K298">
         <v>0.000899856258388358</v>
@@ -18138,7 +18090,7 @@
     </row>
     <row r="299" spans="10:17">
       <c r="J299" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K299">
         <v>0.000899856258388358</v>
@@ -18164,7 +18116,7 @@
     </row>
     <row r="300" spans="10:17">
       <c r="J300" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K300">
         <v>0.000899856258388358</v>
@@ -18372,7 +18324,7 @@
     </row>
     <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K308">
         <v>0.000899856258388358</v>
@@ -18398,7 +18350,7 @@
     </row>
     <row r="309" spans="10:17">
       <c r="J309" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K309">
         <v>0.000899856258388358</v>
@@ -18606,7 +18558,7 @@
     </row>
     <row r="317" spans="10:17">
       <c r="J317" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K317">
         <v>0.000899856258388358</v>
@@ -18684,7 +18636,7 @@
     </row>
     <row r="320" spans="10:17">
       <c r="J320" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K320">
         <v>0.000899856258388358</v>
@@ -18762,7 +18714,7 @@
     </row>
     <row r="323" spans="10:17">
       <c r="J323" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K323">
         <v>0.000899856258388358</v>
@@ -19126,7 +19078,7 @@
     </row>
     <row r="337" spans="10:17">
       <c r="J337" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K337">
         <v>0.000899856258388358</v>
@@ -19230,7 +19182,7 @@
     </row>
     <row r="341" spans="10:17">
       <c r="J341" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K341">
         <v>0.000899856258388358</v>
@@ -19256,7 +19208,7 @@
     </row>
     <row r="342" spans="10:17">
       <c r="J342" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K342">
         <v>0.000899856258388358</v>
@@ -19698,7 +19650,7 @@
     </row>
     <row r="359" spans="10:17">
       <c r="J359" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K359">
         <v>0.000899856258388358</v>
@@ -19776,7 +19728,7 @@
     </row>
     <row r="362" spans="10:17">
       <c r="J362" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K362">
         <v>0.000899856258388358</v>
@@ -20010,7 +19962,7 @@
     </row>
     <row r="371" spans="10:17">
       <c r="J371" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K371">
         <v>0.000899856258388358</v>
@@ -20088,7 +20040,7 @@
     </row>
     <row r="374" spans="10:17">
       <c r="J374" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K374">
         <v>0.000899856258388358</v>
@@ -20504,7 +20456,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K390">
         <v>0.0007347295583005108</v>
@@ -20894,7 +20846,7 @@
     </row>
     <row r="405" spans="10:17">
       <c r="J405" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K405">
         <v>0.0007347295583005108</v>
@@ -21180,7 +21132,7 @@
     </row>
     <row r="416" spans="10:17">
       <c r="J416" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K416">
         <v>0.0007347295583005108</v>
@@ -21258,7 +21210,7 @@
     </row>
     <row r="419" spans="10:17">
       <c r="J419" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K419">
         <v>0.0007347295583005108</v>
@@ -21336,7 +21288,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K422">
         <v>0.0007347295583005108</v>
@@ -22064,7 +22016,7 @@
     </row>
     <row r="450" spans="10:17">
       <c r="J450" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K450">
         <v>0.0007347295583005108</v>
@@ -22090,7 +22042,7 @@
     </row>
     <row r="451" spans="10:17">
       <c r="J451" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K451">
         <v>0.0007347295583005108</v>
@@ -23390,7 +23342,7 @@
     </row>
     <row r="501" spans="10:17">
       <c r="J501" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K501">
         <v>0.0007347295583005108</v>
@@ -23546,7 +23498,7 @@
     </row>
     <row r="507" spans="10:17">
       <c r="J507" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K507">
         <v>0.0007347295583005108</v>
@@ -23832,7 +23784,7 @@
     </row>
     <row r="518" spans="10:17">
       <c r="J518" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K518">
         <v>0.0007347295583005108</v>
@@ -23962,7 +23914,7 @@
     </row>
     <row r="523" spans="10:17">
       <c r="J523" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K523">
         <v>0.0007347295583005108</v>
@@ -24690,7 +24642,7 @@
     </row>
     <row r="551" spans="10:17">
       <c r="J551" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K551">
         <v>0.000519532253012488</v>
@@ -24898,7 +24850,7 @@
     </row>
     <row r="559" spans="10:17">
       <c r="J559" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K559">
         <v>0.000519532253012488</v>
@@ -25054,7 +25006,7 @@
     </row>
     <row r="565" spans="10:17">
       <c r="J565" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K565">
         <v>0.000519532253012488</v>
@@ -25756,7 +25708,7 @@
     </row>
     <row r="592" spans="10:17">
       <c r="J592" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K592">
         <v>0.000519532253012488</v>
@@ -27082,7 +27034,7 @@
     </row>
     <row r="643" spans="10:17">
       <c r="J643" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K643">
         <v>0.000519532253012488</v>
@@ -27888,7 +27840,7 @@
     </row>
     <row r="674" spans="10:17">
       <c r="J674" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K674">
         <v>0.000519532253012488</v>
@@ -28096,7 +28048,7 @@
     </row>
     <row r="682" spans="10:17">
       <c r="J682" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K682">
         <v>0.000519532253012488</v>
@@ -28122,7 +28074,7 @@
     </row>
     <row r="683" spans="10:17">
       <c r="J683" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K683">
         <v>0.000519532253012488</v>
@@ -28278,7 +28230,7 @@
     </row>
     <row r="689" spans="10:17">
       <c r="J689" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K689">
         <v>0.000519532253012488</v>
@@ -28382,7 +28334,7 @@
     </row>
     <row r="693" spans="10:17">
       <c r="J693" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K693">
         <v>0.000519532253012488</v>
@@ -28564,7 +28516,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K700">
         <v>0.000519532253012488</v>
@@ -28720,7 +28672,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K706">
         <v>0.000519532253012488</v>
@@ -30384,7 +30336,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K770">
         <v>0.000519532253012488</v>
@@ -30878,7 +30830,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K789">
         <v>0.000519532253012488</v>
@@ -32282,7 +32234,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K843">
         <v>0.000519532253012488</v>
@@ -33660,7 +33612,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K896">
         <v>0.000519532253012488</v>
